--- a/analysis/weather_stats.xlsx
+++ b/analysis/weather_stats.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5427" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5434" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -41,11 +41,29 @@
   <si>
     <t>nan</t>
   </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -88,7 +106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -104,13 +122,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -118,6 +151,13 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -125,6 +165,13 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E4215"/>
+  <dimension ref="A1:E4220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3991" workbookViewId="0">
-      <selection activeCell="E4215" sqref="E4215"/>
+    <sheetView tabSelected="1" topLeftCell="A4010" workbookViewId="0">
+      <selection activeCell="C4219" sqref="C4219:E4219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -72108,13 +72155,76 @@
       </c>
     </row>
     <row r="4215" spans="1:5">
-      <c r="D4215">
+      <c r="C4215" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4215" s="3">
         <f>AVERAGE(D2:D4214)</f>
         <v>5.8941559901160989</v>
       </c>
-      <c r="E4215">
+      <c r="E4215" s="3">
         <f>AVERAGE(E2:E4214)</f>
         <v>62.714266255450667</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:5">
+      <c r="C4216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4216" s="3">
+        <f>MIN(D2:D4214)</f>
+        <v>0</v>
+      </c>
+      <c r="E4216" s="3">
+        <f>MIN(E2:E4214)</f>
+        <v>19.4583333333333</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:5">
+      <c r="C4217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4217" s="3">
+        <f>MAX(D2:D4214)</f>
+        <v>23.1666666666666</v>
+      </c>
+      <c r="E4217" s="3">
+        <f>MAX(E2:E4214)</f>
+        <v>99.125</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:5">
+      <c r="C4218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4218" s="3">
+        <f>MEDIAN(D2:D4214)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E4218" s="3">
+        <f>MEDIAN(E2:E4214)</f>
+        <v>61.095238095238003</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:5">
+      <c r="C4219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4219">
+        <f>MODE(D2:D4214)</f>
+        <v>5.25</v>
+      </c>
+      <c r="E4219">
+        <f>MODE(E2:E4214)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:5">
+      <c r="D4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4220" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
